--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400121.7618934209</v>
+        <v>395984.2787585071</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021566</v>
+        <v>6660456.462021571</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>20.54712558012668</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082503</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082503</v>
+        <v>21.83835005089332</v>
       </c>
       <c r="F2" t="n">
-        <v>23.32779925082503</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.32779925082503</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20.54712558012681</v>
       </c>
       <c r="E3" t="n">
-        <v>23.32779925082503</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>23.32779925082503</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.54712558012668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="D4" t="n">
-        <v>23.32779925082503</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.54712558012668</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.32779925082503</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.8458783860903203</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.32779925082503</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.7012471940365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841093</v>
+        <v>33.76104808841096</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752734</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="H6" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>37.06736141641881</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H7" t="n">
-        <v>17.84229754998329</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="I7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>37.06736141641878</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>17.84229754998328</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>222.3020972944792</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>322.8202515655704</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>412.6473898085258</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>209.0988115239277</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7335122538385</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.49927723088118</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>222.3020972944794</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>174.15669872815</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,16 +2007,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>54.31661462074995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>111.6239350792306</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>186.8835669644652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2250,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>98.269178555724</v>
       </c>
       <c r="T22" t="n">
-        <v>94.44887516666113</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>371.0555252547903</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>175.9650211344075</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>91.29868241717287</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>201.9021294215869</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2557,16 +2557,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>398.2767944639033</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>151.1590933655699</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>185.4571112832076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>366.6178218613662</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>81.30766987964064</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>107.8778102591389</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3009,7 +3009,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>167.449065422569</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>257.6351509699957</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258704</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>404.0096733001241</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>156.0174566854282</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3432,16 +3432,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>22.68454702280377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -3477,7 +3477,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>13.63374563335519</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>244.9621917497237</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>14.16671796223665</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.495179600792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>88.24074300591342</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>43.55349484584004</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>36.16739218089744</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>89.30668535812433</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -4188,10 +4188,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>32.01788871693722</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.31119700330012</v>
+        <v>71.05203055879703</v>
       </c>
       <c r="C2" t="n">
-        <v>72.55652470014186</v>
+        <v>47.48859697210492</v>
       </c>
       <c r="D2" t="n">
-        <v>48.99309111344991</v>
+        <v>23.92516338541281</v>
       </c>
       <c r="E2" t="n">
-        <v>25.42965752675795</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940066003</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940066003</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940066003</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394746077</v>
+        <v>4.30078039474612</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922406</v>
+        <v>10.55978981922415</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570123</v>
+        <v>19.94042246570137</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593596</v>
+        <v>31.57792675593617</v>
       </c>
       <c r="M2" t="n">
-        <v>44.5268925858406</v>
+        <v>44.5268925858409</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622060008</v>
+        <v>57.68538622060047</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895382</v>
+        <v>70.1105786289543</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249763</v>
+        <v>80.71519288249819</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691207</v>
+        <v>88.6788165469127</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="W2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="X2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.99309111344991</v>
+        <v>46.18432982991652</v>
       </c>
       <c r="C3" t="n">
-        <v>48.99309111344991</v>
+        <v>46.18432982991652</v>
       </c>
       <c r="D3" t="n">
-        <v>48.99309111344991</v>
+        <v>25.42965752675812</v>
       </c>
       <c r="E3" t="n">
-        <v>25.42965752675795</v>
+        <v>25.42965752675812</v>
       </c>
       <c r="F3" t="n">
-        <v>25.42965752675795</v>
+        <v>25.42965752675812</v>
       </c>
       <c r="G3" t="n">
-        <v>25.42965752675795</v>
+        <v>25.42965752675812</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940066003</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="I3" t="n">
-        <v>3.224722227401254</v>
+        <v>3.224722227401275</v>
       </c>
       <c r="J3" t="n">
-        <v>6.952545362113183</v>
+        <v>6.952545362113227</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826884</v>
+        <v>13.32398885826893</v>
       </c>
       <c r="L3" t="n">
-        <v>21.89118092381427</v>
+        <v>21.89118092381441</v>
       </c>
       <c r="M3" t="n">
-        <v>31.88868997596171</v>
+        <v>31.88868997596192</v>
       </c>
       <c r="N3" t="n">
-        <v>42.15080334420286</v>
+        <v>42.15080334420314</v>
       </c>
       <c r="O3" t="n">
-        <v>51.53863220956278</v>
+        <v>51.53863220956312</v>
       </c>
       <c r="P3" t="n">
-        <v>59.07319251962674</v>
+        <v>59.07319251962713</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.21667574498335</v>
+        <v>70.21667574498382</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="S3" t="n">
-        <v>93.31119700330012</v>
+        <v>69.74776341660863</v>
       </c>
       <c r="T3" t="n">
-        <v>93.31119700330012</v>
+        <v>46.18432982991652</v>
       </c>
       <c r="U3" t="n">
-        <v>93.31119700330012</v>
+        <v>46.18432982991652</v>
       </c>
       <c r="V3" t="n">
-        <v>93.31119700330012</v>
+        <v>46.18432982991652</v>
       </c>
       <c r="W3" t="n">
-        <v>93.31119700330012</v>
+        <v>46.18432982991652</v>
       </c>
       <c r="X3" t="n">
-        <v>93.31119700330012</v>
+        <v>46.18432982991652</v>
       </c>
       <c r="Y3" t="n">
-        <v>72.55652470014186</v>
+        <v>46.18432982991652</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.31119700330012</v>
+        <v>26.28408013897057</v>
       </c>
       <c r="C4" t="n">
-        <v>93.31119700330012</v>
+        <v>2.72064655227846</v>
       </c>
       <c r="D4" t="n">
-        <v>69.74776341660817</v>
+        <v>2.72064655227846</v>
       </c>
       <c r="E4" t="n">
-        <v>48.99309111344991</v>
+        <v>2.72064655227846</v>
       </c>
       <c r="F4" t="n">
-        <v>25.42965752675795</v>
+        <v>2.72064655227846</v>
       </c>
       <c r="G4" t="n">
-        <v>25.42965752675795</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="H4" t="n">
-        <v>25.42965752675795</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940066003</v>
+        <v>1.866223940066015</v>
       </c>
       <c r="J4" t="n">
-        <v>4.204940375576625</v>
+        <v>4.204940375576653</v>
       </c>
       <c r="K4" t="n">
-        <v>8.048169904421393</v>
+        <v>8.048169904421444</v>
       </c>
       <c r="L4" t="n">
-        <v>12.96618052372713</v>
+        <v>12.96618052372722</v>
       </c>
       <c r="M4" t="n">
-        <v>36.06070178204391</v>
+        <v>18.15153316581413</v>
       </c>
       <c r="N4" t="n">
-        <v>59.15522304036068</v>
+        <v>24.02763322834996</v>
       </c>
       <c r="O4" t="n">
-        <v>63.83085157826979</v>
+        <v>47.12215448666689</v>
       </c>
       <c r="P4" t="n">
-        <v>70.21667574498335</v>
+        <v>70.21667574498382</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700330012</v>
+        <v>93.31119700330075</v>
       </c>
       <c r="R4" t="n">
-        <v>93.31119700330012</v>
+        <v>73.41094731235479</v>
       </c>
       <c r="S4" t="n">
-        <v>93.31119700330012</v>
+        <v>73.41094731235479</v>
       </c>
       <c r="T4" t="n">
-        <v>93.31119700330012</v>
+        <v>73.41094731235479</v>
       </c>
       <c r="U4" t="n">
-        <v>93.31119700330012</v>
+        <v>73.41094731235479</v>
       </c>
       <c r="V4" t="n">
-        <v>93.31119700330012</v>
+        <v>73.41094731235479</v>
       </c>
       <c r="W4" t="n">
-        <v>93.31119700330012</v>
+        <v>49.84751372566268</v>
       </c>
       <c r="X4" t="n">
-        <v>93.31119700330012</v>
+        <v>26.28408013897057</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.31119700330012</v>
+        <v>26.28408013897057</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
         <v>88.73594738064259</v>
@@ -4555,34 +4555,34 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952684</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
         <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682885</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P5" t="n">
         <v>142.9948879228476</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="D6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="E6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F6" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G6" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
         <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>38.35962772912429</v>
+        <v>59.89648401348967</v>
       </c>
       <c r="K6" t="n">
-        <v>49.62200743646791</v>
+        <v>71.1588637208333</v>
       </c>
       <c r="L6" t="n">
-        <v>64.76566681697273</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M6" t="n">
-        <v>82.43760303375414</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N6" t="n">
-        <v>100.5772628177064</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O6" t="n">
-        <v>117.1715076498293</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P6" t="n">
         <v>152.0267083864403</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>127.8182329816055</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>127.8182329816055</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="C7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="D7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="E7" t="n">
-        <v>63.06004933219677</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="F7" t="n">
-        <v>63.06004933219677</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="G7" t="n">
-        <v>63.06004933219677</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443587</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
         <v>7.439194768028656</v>
@@ -4731,46 +4731,46 @@
         <v>14.23261768427069</v>
       </c>
       <c r="L7" t="n">
-        <v>22.9258601234117</v>
+        <v>25.34179058411489</v>
       </c>
       <c r="M7" t="n">
-        <v>63.82771314046377</v>
+        <v>66.24364360116697</v>
       </c>
       <c r="N7" t="n">
-        <v>104.7295661575158</v>
+        <v>75.19150650798248</v>
       </c>
       <c r="O7" t="n">
-        <v>145.6314191745679</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
-        <v>160.3637509630745</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.06004933219677</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4792,40 +4792,40 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952684</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J8" t="n">
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
-        <v>142.9948879228475</v>
+        <v>142.9948879228476</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.0716593183937</v>
+        <v>157.0716593183938</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4840,7 +4840,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.70652791044117</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
         <v>12.29595456866669</v>
@@ -4889,46 +4889,46 @@
         <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>38.70199365651513</v>
+        <v>49.73101332618943</v>
       </c>
       <c r="M9" t="n">
-        <v>56.37392987329654</v>
+        <v>67.40294954297083</v>
       </c>
       <c r="N9" t="n">
-        <v>74.51358965724877</v>
+        <v>85.54260932692307</v>
       </c>
       <c r="O9" t="n">
-        <v>91.1078344893717</v>
+        <v>102.136854159046</v>
       </c>
       <c r="P9" t="n">
-        <v>104.4261789416173</v>
+        <v>115.4551986112916</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901093</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901093</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.5247019534641</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>146.5247019534641</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506954</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028655</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
         <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>24.4407849625945</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>33.60659023213764</v>
+        <v>63.82771314046379</v>
       </c>
       <c r="N10" t="n">
-        <v>42.55445313895315</v>
+        <v>72.77557604727929</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600521</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>146.5247019534641</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V10" t="n">
-        <v>146.5247019534641</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="W10" t="n">
-        <v>146.5247019534641</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X10" t="n">
-        <v>146.5247019534641</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.5247019534641</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1532.898990326701</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="C11" t="n">
-        <v>1308.351417301975</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.351417301975</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>373.2876137363996</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>373.2876137363996</v>
       </c>
       <c r="G11" t="n">
         <v>47.20655154895474</v>
@@ -5038,7 +5038,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435808</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027048</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="Y11" t="n">
-        <v>1532.898990326701</v>
+        <v>1233.361929063012</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C13" t="n">
-        <v>299.093514772602</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741246</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
         <v>47.20655154895474</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>358.0754347909403</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092383</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1744.26120212753</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>1744.26120212753</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2149.116656716497</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W14" t="n">
-        <v>1744.26120212753</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X14" t="n">
-        <v>1744.26120212753</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.26120212753</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>894.468396736399</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C16" t="n">
-        <v>721.9066852196239</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D16" t="n">
-        <v>556.0286924211466</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E16" t="n">
-        <v>386.2706886718839</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F16" t="n">
-        <v>209.5636346336401</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
@@ -5442,16 +5442,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1842.060047552668</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675982</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351143</v>
+        <v>1911.533332803983</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.124845221574</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.098440807865</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="X16" t="n">
-        <v>1313.706686141278</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y16" t="n">
-        <v>1086.287015455386</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.351417301975</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="C17" t="n">
-        <v>1308.351417301975</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.351417301975</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E17" t="n">
         <v>874.5766724602698</v>
@@ -5512,16 +5512,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2135.78000442301</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>2135.78000442301</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X17" t="n">
-        <v>1716.637541002321</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.351417301975</v>
+        <v>1310.486457285825</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.081764785142</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6547859746801</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895474</v>
@@ -5676,19 +5676,19 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>320.0013704257353</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>862.0820538119942</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M19" t="n">
-        <v>992.6864461505237</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1125.042789823888</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>1662.477920397431</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675982</v>
@@ -5703,22 +5703,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041292</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.2588091910869</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="C20" t="n">
-        <v>483.1163363745102</v>
+        <v>1265.092028726103</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895474</v>
+        <v>829.1822439005475</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>829.1822439005475</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="X20" t="n">
-        <v>1536.329659438081</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="Y20" t="n">
-        <v>1347.558379675995</v>
+        <v>1703.23450154268</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434254</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813591</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021825</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>618.4995461772218</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C22" t="n">
-        <v>445.9378346604467</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D22" t="n">
-        <v>280.0598418619694</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E22" t="n">
-        <v>110.3018381127067</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F22" t="n">
         <v>110.3018381127067</v>
@@ -5913,16 +5913,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>828.1746199579903</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O22" t="n">
         <v>1657.620488527957</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2261.065780926804</v>
       </c>
       <c r="T22" t="n">
-        <v>2120.498134743223</v>
+        <v>2018.81855683021</v>
       </c>
       <c r="U22" t="n">
-        <v>1842.111502791966</v>
+        <v>2018.81855683021</v>
       </c>
       <c r="V22" t="n">
-        <v>1555.155994662397</v>
+        <v>1731.863048700641</v>
       </c>
       <c r="W22" t="n">
-        <v>1283.129590248688</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X22" t="n">
-        <v>1037.737835582101</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y22" t="n">
-        <v>810.3181648962088</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1526.86868437219</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="C23" t="n">
-        <v>1088.726211555613</v>
+        <v>1519.101784779784</v>
       </c>
       <c r="D23" t="n">
-        <v>652.8164267300576</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E23" t="n">
-        <v>652.8164267300576</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F23" t="n">
-        <v>224.9489971392654</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>224.9489971392654</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>1526.86868437219</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W23" t="n">
-        <v>1526.86868437219</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X23" t="n">
-        <v>1526.86868437219</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y23" t="n">
-        <v>1526.86868437219</v>
+        <v>1957.244257596361</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>989.0733853696729</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C25" t="n">
-        <v>816.5116738528978</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D25" t="n">
-        <v>650.6336810544205</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E25" t="n">
-        <v>480.8756773051578</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F25" t="n">
-        <v>304.168623266914</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G25" t="n">
-        <v>139.4274428794324</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6153,19 +6153,19 @@
         <v>289.4920009833859</v>
       </c>
       <c r="L25" t="n">
-        <v>831.5726843696448</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1125.042789823888</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1662.477920397431</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2156.386032577447</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1877.99940062619</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1591.04389249662</v>
       </c>
       <c r="W25" t="n">
-        <v>1408.311674774552</v>
+        <v>1591.04389249662</v>
       </c>
       <c r="X25" t="n">
-        <v>1408.311674774552</v>
+        <v>1345.652137830033</v>
       </c>
       <c r="Y25" t="n">
-        <v>1180.89200408866</v>
+        <v>1118.232467144141</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>449.5063439367359</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>47.20655154895474</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W26" t="n">
-        <v>1703.23450154268</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X26" t="n">
-        <v>1284.09203812199</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>875.8059144216437</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>713.9024503859703</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>541.3407388691952</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6547859746801</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1690.512214359095</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N28" t="n">
-        <v>1887.361501150537</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O28" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1378.532494457437</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.140739790849</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.7210691049575</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1688.947492710957</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.805019894381</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D29" t="n">
-        <v>1250.805019894381</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E29" t="n">
-        <v>817.0302750526757</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6496,19 +6496,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2108.089956131646</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>2108.089956131646</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>1688.947492710957</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y29" t="n">
-        <v>1688.947492710957</v>
+        <v>662.4043965773304</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>471.655226289377</v>
+        <v>903.0372729147111</v>
       </c>
       <c r="C31" t="n">
-        <v>299.093514772602</v>
+        <v>730.4755613979361</v>
       </c>
       <c r="D31" t="n">
-        <v>299.093514772602</v>
+        <v>730.4755613979361</v>
       </c>
       <c r="E31" t="n">
-        <v>129.3355110233392</v>
+        <v>560.7175576486734</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>384.0105036104296</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>219.269323222948</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>488.1941452900674</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1030.274828676326</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M31" t="n">
-        <v>1160.879221014856</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N31" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O31" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1408.311674774552</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.285270360843</v>
+        <v>1567.667316986178</v>
       </c>
       <c r="X31" t="n">
-        <v>890.8935156942559</v>
+        <v>1322.27556231959</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.4738450083642</v>
+        <v>1094.855891633698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001359</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435811</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867028</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2191.18710732393</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2191.18710732393</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2191.18710732393</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W32" t="n">
-        <v>2191.18710732393</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.18710732393</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,52 +6834,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.0817647851425</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>443.5200532683674</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D34" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871986</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
         <v>744.992999204955</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827554</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789088</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.320157362631</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
@@ -6888,10 +6888,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351144</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399887</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
         <v>1552.738213270317</v>
@@ -6903,7 +6903,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041296</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1552.388803007394</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C35" t="n">
-        <v>1552.388803007394</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D35" t="n">
-        <v>1552.388803007394</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E35" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,7 +6958,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6973,16 +6973,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.244257596361</v>
+        <v>2162.267817071192</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.388803007394</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="X35" t="n">
-        <v>1552.388803007394</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="Y35" t="n">
-        <v>1552.388803007394</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.655226289377</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C37" t="n">
-        <v>299.093514772602</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D37" t="n">
-        <v>133.2155219741246</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E37" t="n">
-        <v>110.3018381127067</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
@@ -7098,22 +7098,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083642</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1122.013229783223</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.013229783223</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.013229783223</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7174,16 +7174,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,34 +7192,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>1122.013229783223</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X38" t="n">
-        <v>1122.013229783223</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1122.013229783223</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.655226289377</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C40" t="n">
-        <v>299.093514772602</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D40" t="n">
-        <v>133.2155219741246</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E40" t="n">
-        <v>47.20655154895474</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
@@ -7335,22 +7335,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>295.9524490360515</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>419.8232506543494</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M40" t="n">
-        <v>550.4276429928789</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7365,19 +7365,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083642</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>483.1163363745102</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>483.1163363745102</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>47.20655154895473</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895473</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>662.4043965773304</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>483.1163363745102</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
@@ -7566,28 +7566,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>554.1085916646775</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>1138.289667082992</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N43" t="n">
-        <v>1708.047382044526</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>2118.080353351143</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>2028.948289708806</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W43" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>1092.291841223631</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2283.32848828789</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="X44" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>2024.257796809404</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
         <v>335.7952991210682</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>959.9477806029472</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="C46" t="n">
-        <v>787.3860690861721</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D46" t="n">
-        <v>621.5080762876948</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E46" t="n">
-        <v>451.7500725384321</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F46" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
@@ -7812,7 +7812,7 @@
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M46" t="n">
         <v>1066.127311827553</v>
@@ -7836,22 +7836,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>2183.559737217692</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1896.604229088122</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1624.577824674414</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1379.186070007826</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>1151.766399321934</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
   </sheetData>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.168514336285682</v>
+        <v>6.168514336285739</v>
       </c>
       <c r="R3" t="n">
-        <v>20.85325743064645</v>
+        <v>20.85325743064658</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,19 +8145,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.09006930932313</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21461082043</v>
+        <v>0.8222661782269789</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>18.60494214182605</v>
       </c>
       <c r="P4" t="n">
-        <v>2.409107285598424</v>
+        <v>19.28657909529878</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.52986788788505</v>
+        <v>20.52986788788519</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>21.75440028723773</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8379,22 +8379,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.440333798690084</v>
       </c>
       <c r="M7" t="n">
-        <v>32.05661388637265</v>
+        <v>32.05661388637266</v>
       </c>
       <c r="N7" t="n">
-        <v>32.27675768710763</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32.96672057477704</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>7.737745354913041</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.14042390876192</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.14042390876186</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>36.94091896479665</v>
@@ -8616,16 +8616,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.530227110285649</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>32.05661388637267</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477705</v>
+        <v>2.440333798690091</v>
       </c>
       <c r="P10" t="n">
         <v>34.17160518172662</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>69.27619576520644</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
-        <v>45.75904403825098</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9324,13 +9324,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>30.81754489126192</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>346.1105677786534</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9561,19 +9561,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>141.4680432173442</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>453.2517688993037</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9801,22 +9801,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>105.0002374943219</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>346.1105677786534</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
-        <v>70.05088382580993</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>200.7092366734157</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>192.4544649334032</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>6.525705103702592</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>229.6216911390743</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042871</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.21392250828424</v>
+        <v>10.43324883758573</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726474873</v>
+        <v>8.222887726474717</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142462724</v>
+        <v>7.598647342394433</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2609560440592915</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>211.4589507939317</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>72.68741284174718</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>9.38918497153287</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23554,13 +23554,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>149.891969041584</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.360256329768276</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>214.1034884008633</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>136.6886832710323</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>240.7943400583324</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>109.9025982497426</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23943,7 +23943,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>114.8692533779057</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>311.9648202156537</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>217.3196954988778</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>44.71309455508383</v>
       </c>
       <c r="T22" t="n">
-        <v>145.3758766889663</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>60.49516172250964</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>91.05931480712114</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39.72193759730439</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>37.92262243404051</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>35.48425362450757</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>305.396991767981</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13.0601195049226</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>248.3039368052033</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>56.97093343351816</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>93.63231361822069</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>23.14280975533833</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>42.2044735930099</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>146.5681114933474</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779055</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>25.42732409316369</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>202.9733238800835</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3758766889663</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>211.5117283456776</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>184.4748056435641</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>175.7337145695606</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y41" t="n">
-        <v>226.7080828625511</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>195.8452100423604</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>199.3843422740816</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>173.4861468346814</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>254.5875093574904</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>100.5937471736729</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>243.5848769148072</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>364772.2477364311</v>
+        <v>364772.247736431</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>364772.2477364311</v>
+        <v>364772.2477364312</v>
       </c>
     </row>
     <row r="12">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344884.0606555933</v>
+        <v>344884.0606555934</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="E2" t="n">
         <v>204486.8426910626</v>
       </c>
       <c r="F2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="G2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910627</v>
       </c>
       <c r="H2" t="n">
         <v>204486.8426910626</v>
@@ -26340,7 +26340,7 @@
         <v>204486.8426910626</v>
       </c>
       <c r="K2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="L2" t="n">
         <v>204486.8426910626</v>
@@ -26349,13 +26349,13 @@
         <v>204486.8426910626</v>
       </c>
       <c r="N2" t="n">
-        <v>204486.8426910627</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="O2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="P2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168977</v>
+        <v>25672.8015016899</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088722</v>
+        <v>18763.31828088707</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182864</v>
+        <v>6103.578707182875</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.33066674968</v>
+        <v>4629.330666749642</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296437.9374459106</v>
+        <v>296437.9374459105</v>
       </c>
       <c r="C4" t="n">
         <v>294691.6588548442</v>
@@ -26426,7 +26426,7 @@
         <v>294691.6588548442</v>
       </c>
       <c r="E4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="F4" t="n">
         <v>19185.36025012663</v>
@@ -26435,28 +26435,28 @@
         <v>19185.36025012662</v>
       </c>
       <c r="H4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="I4" t="n">
         <v>19185.36025012662</v>
       </c>
       <c r="J4" t="n">
+        <v>19185.36025012661</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19185.36025012661</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19185.36025012662</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19185.36025012662</v>
+      </c>
+      <c r="N4" t="n">
         <v>19185.36025012663</v>
       </c>
-      <c r="K4" t="n">
-        <v>19185.36025012662</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>19185.36025012663</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19185.36025012663</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19185.36025012662</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19185.36025012661</v>
       </c>
       <c r="P4" t="n">
         <v>19185.36025012662</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413288</v>
+        <v>35449.8699541329</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26493,13 +26493,13 @@
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="L5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="K5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="L5" t="n">
-        <v>46051.08120963783</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
@@ -26508,7 +26508,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12676.54824613989</v>
+        <v>-12690.43938949826</v>
       </c>
       <c r="C6" t="n">
-        <v>-1812.789017176059</v>
+        <v>-1812.789017176001</v>
       </c>
       <c r="D6" t="n">
-        <v>16950.52926371097</v>
+        <v>16950.52926371121</v>
       </c>
       <c r="E6" t="n">
-        <v>-373235.1083246836</v>
+        <v>-373788.9887679055</v>
       </c>
       <c r="F6" t="n">
-        <v>139250.4012312981</v>
+        <v>138696.5207880762</v>
       </c>
       <c r="G6" t="n">
-        <v>139250.4012312981</v>
+        <v>138696.5207880763</v>
       </c>
       <c r="H6" t="n">
-        <v>139250.4012312982</v>
+        <v>138696.5207880762</v>
       </c>
       <c r="I6" t="n">
-        <v>139250.4012312982</v>
+        <v>138696.5207880762</v>
       </c>
       <c r="J6" t="n">
-        <v>133146.8225241153</v>
+        <v>132592.9420808934</v>
       </c>
       <c r="K6" t="n">
-        <v>134621.0705645485</v>
+        <v>134067.1901213265</v>
       </c>
       <c r="L6" t="n">
-        <v>139250.4012312981</v>
+        <v>138696.5207880762</v>
       </c>
       <c r="M6" t="n">
-        <v>2495.496848182724</v>
+        <v>1941.61640496076</v>
       </c>
       <c r="N6" t="n">
-        <v>139250.4012312982</v>
+        <v>138696.5207880762</v>
       </c>
       <c r="O6" t="n">
-        <v>139250.4012312981</v>
+        <v>138696.5207880762</v>
       </c>
       <c r="P6" t="n">
-        <v>139250.4012312981</v>
+        <v>138696.5207880762</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443693</v>
+        <v>18.52934677443705</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26755,7 +26755,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082503</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
@@ -26813,13 +26813,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="K4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.0818943619344</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
@@ -26828,7 +26828,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619342</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443693</v>
+        <v>18.52934677443705</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613466</v>
+        <v>14.22375528613455</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082503</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670231</v>
+        <v>17.98720379670216</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082503</v>
+        <v>23.32779925082507</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670231</v>
+        <v>17.98720379670216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082503</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670231</v>
+        <v>17.98720379670216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379038</v>
+        <v>81.11791793379037</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.7630628181405</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>73.59226038478546</v>
       </c>
       <c r="E3" t="n">
-        <v>69.85141127549079</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -27475,7 +27475,7 @@
         <v>84.49138326039709</v>
       </c>
       <c r="H3" t="n">
-        <v>17.60557545265943</v>
+        <v>17.60557545265927</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.08058333091452</v>
+        <v>38.75278408008933</v>
       </c>
       <c r="T3" t="n">
-        <v>128.7162112922732</v>
+        <v>105.388412041448</v>
       </c>
       <c r="U3" t="n">
         <v>174.5705594526576</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>104.6737958484447</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>147.5082951507821</v>
       </c>
       <c r="D4" t="n">
-        <v>140.8914136196675</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>147.5132981316434</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>151.6121842470363</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.90194864828</v>
+        <v>163.0560702621896</v>
       </c>
       <c r="H4" t="n">
         <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>63.44071311946215</v>
+        <v>86.76851237028718</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403651</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.0666475106129</v>
@@ -27599,10 +27599,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>245.9783411187462</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>219.6100378690965</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27706,13 +27706,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.1457857203675</v>
+        <v>48.07053408363275</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.51230405132225</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T6" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U6" t="n">
-        <v>137.5011852406795</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
@@ -27782,19 +27782,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8762992535017</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H7" t="n">
         <v>120.1357315113781</v>
       </c>
       <c r="I7" t="n">
-        <v>44.68216206888226</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T7" t="n">
         <v>243.1682919906331</v>
       </c>
       <c r="U7" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.11184910989704</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036751</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>128.5928940176698</v>
+        <v>92.20263933340772</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>146.3769153205093</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888226</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6454491228296</v>
+        <v>234.3304460753022</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>251.4638428195881</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914336</v>
+        <v>0.07448983627914385</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937772</v>
+        <v>0.7628690357937822</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151678</v>
+        <v>2.871769413151696</v>
       </c>
       <c r="J2" t="n">
-        <v>6.32223174189695</v>
+        <v>6.322231741896991</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593092</v>
+        <v>9.475386511593152</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862093</v>
+        <v>11.755054838621</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455014</v>
+        <v>13.07976346455023</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187826</v>
+        <v>13.29140771187835</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237753</v>
+        <v>12.55069940237761</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923617</v>
+        <v>10.71173156923624</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489348</v>
+        <v>8.044064307489402</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169744</v>
+        <v>4.679172178169774</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210981</v>
+        <v>1.697437144210992</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119503</v>
+        <v>0.3260792583119524</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331468</v>
+        <v>0.005959186902331507</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086433</v>
+        <v>0.0398555760808646</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651898</v>
+        <v>0.3849209584651923</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257829</v>
+        <v>1.372220492257838</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850433</v>
+        <v>3.765477913850458</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268344</v>
+        <v>6.435801511268386</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136793</v>
+        <v>8.65372935913685</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206812</v>
+        <v>10.09849399206819</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903147</v>
+        <v>10.36577107903153</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555472</v>
+        <v>9.482655419555533</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862595</v>
+        <v>7.610666979862645</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690683</v>
+        <v>5.087529325690716</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178578</v>
+        <v>2.474541820178594</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862296</v>
+        <v>0.7402998451862344</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312031</v>
+        <v>0.1606459404312042</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741076</v>
+        <v>0.002622077373741093</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062397</v>
+        <v>0.03341357615062418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.297077067957366</v>
+        <v>0.2970770679573679</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784219</v>
+        <v>1.004837362784226</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849114</v>
+        <v>2.36233983384913</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136129</v>
+        <v>3.882050029136154</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248222</v>
+        <v>4.967687494248255</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501899</v>
+        <v>5.237729941501933</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430395033</v>
+        <v>5.113188430395065</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999105</v>
+        <v>4.722857108999136</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526373</v>
+        <v>4.0412201555264</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939976</v>
+        <v>2.797931362939994</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645328</v>
+        <v>1.502395887645338</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704192</v>
+        <v>0.582307504370423</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981205</v>
+        <v>0.1427670980981215</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124946</v>
+        <v>0.001822558699124958</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32092,7 +32092,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917233</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233509</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -33043,7 +33043,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45914793402028</v>
+        <v>2.459147934020299</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896957</v>
+        <v>6.322231741896999</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593101</v>
+        <v>9.47538651159315</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862094</v>
+        <v>11.75505483862101</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455014</v>
+        <v>13.07976346455024</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187826</v>
+        <v>13.29140771187835</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237752</v>
+        <v>12.5506994023776</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923618</v>
+        <v>10.71173156923625</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489336</v>
+        <v>8.044064307489407</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169736</v>
+        <v>4.67917217816975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257829</v>
+        <v>1.372220492257838</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850433</v>
+        <v>3.765477913850457</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268344</v>
+        <v>6.435801511268386</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136793</v>
+        <v>8.653729359136852</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206812</v>
+        <v>10.09849399206819</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903147</v>
+        <v>10.36577107903153</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555471</v>
+        <v>9.482655419555535</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862593</v>
+        <v>7.610666979862643</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.25604366197636</v>
+        <v>11.25604366197646</v>
       </c>
       <c r="R3" t="n">
-        <v>23.32779925082502</v>
+        <v>23.32779925082518</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849115</v>
+        <v>2.36233983384913</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136128</v>
+        <v>3.882050029136153</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248221</v>
+        <v>4.967687494248255</v>
       </c>
       <c r="M4" t="n">
-        <v>23.32779925082503</v>
+        <v>5.237729941501934</v>
       </c>
       <c r="N4" t="n">
-        <v>23.32779925082503</v>
+        <v>5.935454608622045</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999101</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="P4" t="n">
-        <v>6.450327441124799</v>
+        <v>23.32779925082519</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.32779925082502</v>
+        <v>23.32779925082518</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075756</v>
+        <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
       </c>
       <c r="M5" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N5" t="n">
-        <v>23.49434324994147</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
@@ -35014,7 +35014,7 @@
         <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460122</v>
+        <v>28.41038681069788</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35032,7 +35032,7 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P6" t="n">
-        <v>35.20727347132421</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q6" t="n">
         <v>8.99288945632901</v>
@@ -35099,22 +35099,22 @@
         <v>6.862043349739427</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>11.22138676751939</v>
       </c>
       <c r="M7" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.038245360419722</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.348282472750284</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>41.31500304752733</v>
-      </c>
-      <c r="P7" t="n">
-        <v>14.88114322071377</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4.945718411146316</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.17539134075756</v>
+        <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
         <v>20.77863378260766</v>
@@ -35187,16 +35187,16 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160912</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655539</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460122</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>15.29662563687356</v>
+        <v>26.43704954563547</v>
       </c>
       <c r="M9" t="n">
         <v>17.85044062301152</v>
@@ -35272,7 +35272,7 @@
         <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.13331336509088</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35333,19 +35333,19 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739428</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>10.31128007911496</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154689</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
         <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752733</v>
+        <v>10.78861627144038</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
@@ -35570,25 +35570,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>167.0540751263764</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,13 +35646,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35810,19 +35810,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
-        <v>147.5459694702542</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
@@ -35883,16 +35883,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125708</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -36044,22 +36044,22 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>128.5954242524319</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>447.8974932106569</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917239</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233509</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>266.5900650540088</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>585.1753975240808</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36302,7 +36302,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36521,22 +36521,22 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>236.9238661190991</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>447.8974932106569</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>198.8376634256983</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>298.4871160345856</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37165,13 +37165,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>324.3780935581804</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,13 +37560,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>104.3035844648725</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>354.7437129757389</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -38113,13 +38113,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409517</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
